--- a/1-repeated-measures-expected-values/bp.xlsx
+++ b/1-repeated-measures-expected-values/bp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199CBC93-46AA-4FB0-B73A-6D6D7DADE520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F752E-AB0C-4106-9D1B-993872989E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
   </bookViews>

--- a/1-repeated-measures-expected-values/bp.xlsx
+++ b/1-repeated-measures-expected-values/bp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F752E-AB0C-4106-9D1B-993872989E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22299C31-4917-4E66-9006-2B6F3F1071F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="24">
   <si>
     <t>patient</t>
   </si>
@@ -71,12 +71,48 @@
   <si>
     <t>https://github.com/Opensourcefordatascience/Data-sets/blob/master/blood_pressure.csv</t>
   </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +125,14 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,14 +150,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F680B4-3E51-4AB9-AB6A-D826AD9B744A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -454,15 +523,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63043E7-7A10-4A2E-BA1C-809B89C0A43B}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="7" max="7" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +551,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -496,7 +572,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -512,8 +588,15 @@
       <c r="E3">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -529,8 +612,17 @@
       <c r="E4">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2">
+        <v>156.44999999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>151.35833333333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -546,8 +638,17 @@
       <c r="E5">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>129.72857142857146</v>
+      </c>
+      <c r="I5" s="2">
+        <v>201.00497198879549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -563,8 +664,17 @@
       <c r="E6">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>120</v>
+      </c>
+      <c r="I6" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -580,8 +690,15 @@
       <c r="E7">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.15911810291010761</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -597,8 +714,15 @@
       <c r="E8">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -614,8 +738,15 @@
       <c r="E9">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2">
+        <v>119</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -631,8 +762,15 @@
       <c r="E10">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.3371870510833652</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -648,8 +786,15 @@
       <c r="E11">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.6489573224204059E-4</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -665,8 +810,15 @@
       <c r="E12">
         <v>164</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.6577592849428349</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -682,8 +834,15 @@
       <c r="E13">
         <v>159</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.1297914644840812E-3</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.2" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -699,8 +858,15 @@
       <c r="E14">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.9800998764569426</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -717,7 +883,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2521,5 +2687,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1-repeated-measures-expected-values/bp.xlsx
+++ b/1-repeated-measures-expected-values/bp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22299C31-4917-4E66-9006-2B6F3F1071F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA2B9D-CAC8-4C60-AE35-7D0579F8C588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="1" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="12">
   <si>
     <t>patient</t>
   </si>
@@ -71,48 +71,12 @@
   <si>
     <t>https://github.com/Opensourcefordatascience/Data-sets/blob/master/blood_pressure.csv</t>
   </si>
-  <si>
-    <t>t-Test: Paired Two Sample for Means</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Pearson Correlation</t>
-  </si>
-  <si>
-    <t>Hypothesized Mean Difference</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) one-tail</t>
-  </si>
-  <si>
-    <t>t Critical one-tail</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) two-tail</t>
-  </si>
-  <si>
-    <t>t Critical two-tail</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,14 +89,6 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -150,39 +106,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +435,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -523,19 +454,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63043E7-7A10-4A2E-BA1C-809B89C0A43B}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="7" max="7" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.7"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,11 +478,8 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -572,7 +496,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -588,15 +512,8 @@
       <c r="E3">
         <v>170</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -612,17 +529,8 @@
       <c r="E4">
         <v>168</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2">
-        <v>156.44999999999999</v>
-      </c>
-      <c r="I4" s="2">
-        <v>151.35833333333332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -638,17 +546,8 @@
       <c r="E5">
         <v>142</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>129.72857142857146</v>
-      </c>
-      <c r="I5" s="2">
-        <v>201.00497198879549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -664,17 +563,8 @@
       <c r="E6">
         <v>141</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2">
-        <v>120</v>
-      </c>
-      <c r="I6" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -690,15 +580,8 @@
       <c r="E7">
         <v>147</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.15911810291010761</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -714,15 +597,8 @@
       <c r="E8">
         <v>133</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -738,15 +614,8 @@
       <c r="E9">
         <v>141</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2">
-        <v>119</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -762,15 +631,8 @@
       <c r="E10">
         <v>131</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3.3371870510833652</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -786,15 +648,8 @@
       <c r="E11">
         <v>125</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.6489573224204059E-4</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -810,15 +665,8 @@
       <c r="E12">
         <v>164</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.6577592849428349</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -834,15 +682,8 @@
       <c r="E13">
         <v>159</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1.1297914644840812E-3</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.2" thickBot="1">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -858,15 +699,8 @@
       <c r="E14">
         <v>135</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1.9800998764569426</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -883,7 +717,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
